--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Ccl21b-Ccr7.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Ccl21b-Ccr7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -85,7 +94,10 @@
     <t>Ccr7</t>
   </si>
   <si>
-    <t>M2</t>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -443,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +528,743 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G2">
+        <v>0.03355466666666667</v>
+      </c>
+      <c r="H2">
+        <v>0.100664</v>
+      </c>
+      <c r="I2">
+        <v>0.1494171833323191</v>
+      </c>
+      <c r="J2">
+        <v>0.1494171833323191</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M2">
+        <v>1.078725333333334</v>
+      </c>
+      <c r="N2">
+        <v>3.236176</v>
+      </c>
+      <c r="O2">
+        <v>0.2811119056404869</v>
+      </c>
+      <c r="P2">
+        <v>0.2811119056404868</v>
+      </c>
+      <c r="Q2">
+        <v>0.0361962689848889</v>
+      </c>
+      <c r="R2">
+        <v>0.325766420864</v>
+      </c>
+      <c r="S2">
+        <v>0.04200294914198221</v>
+      </c>
+      <c r="T2">
+        <v>0.0420029491419822</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G3">
+        <v>0.03355466666666667</v>
+      </c>
+      <c r="H3">
+        <v>0.100664</v>
+      </c>
+      <c r="I3">
+        <v>0.1494171833323191</v>
+      </c>
+      <c r="J3">
+        <v>0.1494171833323191</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>2.121494666666667</v>
+      </c>
+      <c r="N3">
+        <v>6.364484</v>
+      </c>
+      <c r="O3">
+        <v>0.5528538082163603</v>
+      </c>
+      <c r="P3">
+        <v>0.5528538082163602</v>
+      </c>
+      <c r="Q3">
+        <v>0.07118604637511111</v>
+      </c>
+      <c r="R3">
+        <v>0.6406744173760001</v>
+      </c>
+      <c r="S3">
+        <v>0.08260585881823468</v>
+      </c>
+      <c r="T3">
+        <v>0.08260585881823466</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.03355466666666667</v>
+      </c>
+      <c r="H4">
+        <v>0.100664</v>
+      </c>
+      <c r="I4">
+        <v>0.1494171833323191</v>
+      </c>
+      <c r="J4">
+        <v>0.1494171833323191</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.6371319999999999</v>
+      </c>
+      <c r="N4">
+        <v>1.911396</v>
+      </c>
+      <c r="O4">
+        <v>0.1660342861431529</v>
+      </c>
+      <c r="P4">
+        <v>0.1660342861431529</v>
+      </c>
+      <c r="Q4">
+        <v>0.02137875188266667</v>
+      </c>
+      <c r="R4">
+        <v>0.192408766944</v>
+      </c>
+      <c r="S4">
+        <v>0.0248083753721022</v>
+      </c>
+      <c r="T4">
+        <v>0.02480837537210219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.08844</v>
+      </c>
+      <c r="H5">
+        <v>0.26532</v>
+      </c>
+      <c r="I5">
+        <v>0.3938187145526792</v>
+      </c>
+      <c r="J5">
+        <v>0.3938187145526791</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>1.078725333333334</v>
+      </c>
+      <c r="N5">
+        <v>3.236176</v>
+      </c>
+      <c r="O5">
+        <v>0.2811119056404869</v>
+      </c>
+      <c r="P5">
+        <v>0.2811119056404868</v>
+      </c>
+      <c r="Q5">
+        <v>0.09540246848000002</v>
+      </c>
+      <c r="R5">
+        <v>0.8586222163200001</v>
+      </c>
+      <c r="S5">
+        <v>0.1107071293247906</v>
+      </c>
+      <c r="T5">
+        <v>0.1107071293247906</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.08844</v>
+      </c>
+      <c r="H6">
+        <v>0.26532</v>
+      </c>
+      <c r="I6">
+        <v>0.3938187145526792</v>
+      </c>
+      <c r="J6">
+        <v>0.3938187145526791</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>2.121494666666667</v>
+      </c>
+      <c r="N6">
+        <v>6.364484</v>
+      </c>
+      <c r="O6">
+        <v>0.5528538082163603</v>
+      </c>
+      <c r="P6">
+        <v>0.5528538082163602</v>
+      </c>
+      <c r="Q6">
+        <v>0.18762498832</v>
+      </c>
+      <c r="R6">
+        <v>1.68862489488</v>
+      </c>
+      <c r="S6">
+        <v>0.2177241760873204</v>
+      </c>
+      <c r="T6">
+        <v>0.2177241760873204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.08844</v>
+      </c>
+      <c r="H7">
+        <v>0.26532</v>
+      </c>
+      <c r="I7">
+        <v>0.3938187145526792</v>
+      </c>
+      <c r="J7">
+        <v>0.3938187145526791</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.6371319999999999</v>
+      </c>
+      <c r="N7">
+        <v>1.911396</v>
+      </c>
+      <c r="O7">
+        <v>0.1660342861431529</v>
+      </c>
+      <c r="P7">
+        <v>0.1660342861431529</v>
+      </c>
+      <c r="Q7">
+        <v>0.05634795408</v>
+      </c>
+      <c r="R7">
+        <v>0.5071315867199999</v>
+      </c>
+      <c r="S7">
+        <v>0.06538740914056819</v>
+      </c>
+      <c r="T7">
+        <v>0.06538740914056816</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.03917266666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.117518</v>
+      </c>
+      <c r="I8">
+        <v>0.1744338447791412</v>
+      </c>
+      <c r="J8">
+        <v>0.1744338447791412</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>1.078725333333334</v>
+      </c>
+      <c r="N8">
+        <v>3.236176</v>
+      </c>
+      <c r="O8">
+        <v>0.2811119056404869</v>
+      </c>
+      <c r="P8">
+        <v>0.2811119056404868</v>
+      </c>
+      <c r="Q8">
+        <v>0.04225654790755556</v>
+      </c>
+      <c r="R8">
+        <v>0.380308931168</v>
+      </c>
+      <c r="S8">
+        <v>0.04903543051406128</v>
+      </c>
+      <c r="T8">
+        <v>0.04903543051406126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.03917266666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.117518</v>
+      </c>
+      <c r="I9">
+        <v>0.1744338447791412</v>
+      </c>
+      <c r="J9">
+        <v>0.1744338447791412</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.121494666666667</v>
+      </c>
+      <c r="N9">
+        <v>6.364484</v>
+      </c>
+      <c r="O9">
+        <v>0.5528538082163603</v>
+      </c>
+      <c r="P9">
+        <v>0.5528538082163602</v>
+      </c>
+      <c r="Q9">
+        <v>0.08310460341244444</v>
+      </c>
+      <c r="R9">
+        <v>0.747941430712</v>
+      </c>
+      <c r="S9">
+        <v>0.09643641536796971</v>
+      </c>
+      <c r="T9">
+        <v>0.09643641536796968</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.03917266666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.117518</v>
+      </c>
+      <c r="I10">
+        <v>0.1744338447791412</v>
+      </c>
+      <c r="J10">
+        <v>0.1744338447791412</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.6371319999999999</v>
+      </c>
+      <c r="N10">
+        <v>1.911396</v>
+      </c>
+      <c r="O10">
+        <v>0.1660342861431529</v>
+      </c>
+      <c r="P10">
+        <v>0.1660342861431529</v>
+      </c>
+      <c r="Q10">
+        <v>0.02495815945866666</v>
+      </c>
+      <c r="R10">
+        <v>0.224623435128</v>
+      </c>
+      <c r="S10">
+        <v>0.02896199889711025</v>
+      </c>
+      <c r="T10">
+        <v>0.02896199889711024</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0.0460147607688782</v>
-      </c>
-      <c r="H2">
-        <v>0.0460147607688782</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>2.10492613513091</v>
-      </c>
-      <c r="N2">
-        <v>2.10492613513091</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>0.0968576725442082</v>
-      </c>
-      <c r="R2">
-        <v>0.0968576725442082</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.063403</v>
+      </c>
+      <c r="H11">
+        <v>0.190209</v>
+      </c>
+      <c r="I11">
+        <v>0.2823302573358606</v>
+      </c>
+      <c r="J11">
+        <v>0.2823302573358606</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>1.078725333333334</v>
+      </c>
+      <c r="N11">
+        <v>3.236176</v>
+      </c>
+      <c r="O11">
+        <v>0.2811119056404869</v>
+      </c>
+      <c r="P11">
+        <v>0.2811119056404868</v>
+      </c>
+      <c r="Q11">
+        <v>0.06839442230933335</v>
+      </c>
+      <c r="R11">
+        <v>0.615549800784</v>
+      </c>
+      <c r="S11">
+        <v>0.07936639665965284</v>
+      </c>
+      <c r="T11">
+        <v>0.07936639665965282</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.063403</v>
+      </c>
+      <c r="H12">
+        <v>0.190209</v>
+      </c>
+      <c r="I12">
+        <v>0.2823302573358606</v>
+      </c>
+      <c r="J12">
+        <v>0.2823302573358606</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.121494666666667</v>
+      </c>
+      <c r="N12">
+        <v>6.364484</v>
+      </c>
+      <c r="O12">
+        <v>0.5528538082163603</v>
+      </c>
+      <c r="P12">
+        <v>0.5528538082163602</v>
+      </c>
+      <c r="Q12">
+        <v>0.1345091263506667</v>
+      </c>
+      <c r="R12">
+        <v>1.210582137156</v>
+      </c>
+      <c r="S12">
+        <v>0.1560873579428356</v>
+      </c>
+      <c r="T12">
+        <v>0.1560873579428355</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.063403</v>
+      </c>
+      <c r="H13">
+        <v>0.190209</v>
+      </c>
+      <c r="I13">
+        <v>0.2823302573358606</v>
+      </c>
+      <c r="J13">
+        <v>0.2823302573358606</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.6371319999999999</v>
+      </c>
+      <c r="N13">
+        <v>1.911396</v>
+      </c>
+      <c r="O13">
+        <v>0.1660342861431529</v>
+      </c>
+      <c r="P13">
+        <v>0.1660342861431529</v>
+      </c>
+      <c r="Q13">
+        <v>0.04039608019599999</v>
+      </c>
+      <c r="R13">
+        <v>0.363564721764</v>
+      </c>
+      <c r="S13">
+        <v>0.04687650273337227</v>
+      </c>
+      <c r="T13">
+        <v>0.04687650273337227</v>
       </c>
     </row>
   </sheetData>
